--- a/接口.xlsx
+++ b/接口.xlsx
@@ -49,97 +49,104 @@
   </si>
   <si>
     <t>{
-    "userId": "userId1",
-    "password": "123456",
-    "occupation": [
-        "java"
-    ],
-    "gender": "F"
+    "resultCode": 0,
+    "content": {
+        "adminId": "adminId1",
+        "gender": "F"
+    }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-    "adminId": "adminId1",
-    "password": "123456",
-    "gender": "F"
+    "resultCode": 0,
+    "content": {
+        "context": {
+            "questionNum": 10,
+            "radioNum": 4,
+            "simpleNum": 4,
+            "programNum": 2
+        },
+        "radioQuestion": [
+            {
+                "questionId": 1,
+                "programType": "radioQuestion",
+                "questionContent": "单选问题1",
+                "questionAnswer": "A"
+            },
+            {
+                "questionId": 2,
+                "programType": "radioQuestion",
+                "questionContent": "单选问题2",
+                "questionAnswer": "B"
+            },
+            {
+                "questionId": 3,
+                "programType": "radioQuestion",
+                "questionContent": "单选问题3",
+                "questionAnswer": "C"
+            },
+            {
+                "questionId": 4,
+                "programType": "radioQuestion",
+                "questionContent": "单选问题4",
+                "questionAnswer": "D"
+            }
+        ],
+        "simpleQuestion": [
+            {
+                "questionId": 5,
+                "programType": "simpleQuestion",
+                "questionContent": "简单问题1",
+                "questionAnswer": "aaa"
+            },
+            {
+                "questionId": 6,
+                "programType": "simpleQuestion",
+                "questionContent": "简答问题2",
+                "questionAnswer": "bbb"
+            },
+            {
+                "questionId": 7,
+                "programType": "simpleQuestion",
+                "questionContent": "简答问题3",
+                "questionAnswer": "ccc"
+            },
+            {
+                "questionId": 8,
+                "programType": "simpleQuestion",
+                "questionContent": "简答问题4",
+                "questionAnswer": "ddd"
+            }
+        ],
+        "programQuestion": [
+            {
+                "questionId": 9,
+                "programType": "javaProgram",
+                "questionContent": "编程问题1",
+                "questionAnswer": "11"
+            },
+            {
+                "questionId": 10,
+                "programType": "javaProgram",
+                "questionContent": "编程问题2",
+                "questionAnswer": "12"
+            }
+        ]
+    }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-    "context": {
-        "questionNum": 10,
-        "radioNum": 4,
-        "simpleNum": 4,
-        "programNum": 2
-    },
-    "radioQuestion": [
-        {
-            "questionId": 1,
-            "programType": "radioQuestion",
-            "questionContent": "单选问题1",
-            "questionAnswer": "A"
-        },
-        {
-            "questionId": 2,
-            "programType": "radioQuestion",
-            "questionContent": "单选问题2",
-            "questionAnswer": "B"
-        },
-        {
-            "questionId": 3,
-            "programType": "radioQuestion",
-            "questionContent": "单选问题3",
-            "questionAnswer": "C"
-        },
-        {
-            "questionId": 4,
-            "programType": "radioQuestion",
-            "questionContent": "单选问题4",
-            "questionAnswer": "D"
-        }
-    ],
-    "simpleQuestion": [
-        {
-            "questionId": 5,
-            "programType": "simpleQuestion",
-            "questionContent": "简单问题1",
-            "questionAnswer": "aaa"
-        },
-        {
-            "questionId": 6,
-            "programType": "simpleQuestion",
-            "questionContent": "简答问题2",
-            "questionAnswer": "bbb"
-        },
-        {
-            "questionId": 7,
-            "programType": "simpleQuestion",
-            "questionContent": "简答问题3",
-            "questionAnswer": "ccc"
-        },
-        {
-            "questionId": 8,
-            "programType": "simpleQuestion",
-            "questionContent": "简答问题4",
-            "questionAnswer": "ddd"
-        }
-    ],
-    "programQuestion": [
-        {
-            "questionId": 9,
-            "programType": "javaProgram",
-            "questionContent": "编程问题1",
-            "questionAnswer": "11"
-        },
-        {
-            "questionId": 10,
-            "programType": "javaProgram",
-            "questionContent": "编程问题2",
-            "questionAnswer": "12"
-        }
-    ]
+    "resultCode": 0,
+    "content": {
+        "userId": "userId1",
+        "occupation": [
+            "java"
+        ],
+        "gender": "M"
+    }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,10 +216,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -521,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="132.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="146" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -529,46 +536,46 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="131" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="230" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
